--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.005643</v>
+        <v>0.025196</v>
       </c>
       <c r="H2">
-        <v>0.016929</v>
+        <v>0.075588</v>
       </c>
       <c r="I2">
-        <v>0.01716510603349066</v>
+        <v>0.01673902202018037</v>
       </c>
       <c r="J2">
-        <v>0.01716510603349066</v>
+        <v>0.01673902202018037</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.011401</v>
+        <v>0.03537</v>
       </c>
       <c r="N2">
-        <v>0.034203</v>
+        <v>0.10611</v>
       </c>
       <c r="O2">
-        <v>0.01020808032994874</v>
+        <v>0.01357924161260117</v>
       </c>
       <c r="P2">
-        <v>0.01020808032994874</v>
+        <v>0.01357924161260117</v>
       </c>
       <c r="Q2">
-        <v>6.433584299999999E-05</v>
+        <v>0.00089118252</v>
       </c>
       <c r="R2">
-        <v>0.0005790225869999999</v>
+        <v>0.00802064268</v>
       </c>
       <c r="S2">
-        <v>0.0001752227812619606</v>
+        <v>0.0002273032243706805</v>
       </c>
       <c r="T2">
-        <v>0.0001752227812619606</v>
+        <v>0.0002273032243706805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,51 +596,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.005643</v>
+        <v>0.025196</v>
       </c>
       <c r="H3">
-        <v>0.016929</v>
+        <v>0.075588</v>
       </c>
       <c r="I3">
-        <v>0.01716510603349066</v>
+        <v>0.01673902202018037</v>
       </c>
       <c r="J3">
-        <v>0.01716510603349066</v>
+        <v>0.01673902202018037</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.105459333333333</v>
+        <v>0.011401</v>
       </c>
       <c r="N3">
-        <v>3.316378</v>
+        <v>0.034203</v>
       </c>
       <c r="O3">
-        <v>0.9897919196700513</v>
+        <v>0.004377069087511052</v>
       </c>
       <c r="P3">
-        <v>0.9897919196700512</v>
+        <v>0.004377069087511052</v>
       </c>
       <c r="Q3">
-        <v>0.006238107018</v>
+        <v>0.000287259596</v>
       </c>
       <c r="R3">
-        <v>0.05614296316199999</v>
+        <v>0.002585336364</v>
       </c>
       <c r="S3">
-        <v>0.0169898832522287</v>
+        <v>7.326785583969829E-05</v>
       </c>
       <c r="T3">
-        <v>0.0169898832522287</v>
+        <v>7.326785583969829E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03066833333333333</v>
+        <v>0.025196</v>
       </c>
       <c r="H4">
-        <v>0.09200499999999999</v>
+        <v>0.075588</v>
       </c>
       <c r="I4">
-        <v>0.09328817890078023</v>
+        <v>0.01673902202018037</v>
       </c>
       <c r="J4">
-        <v>0.09328817890078023</v>
+        <v>0.01673902202018037</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.011401</v>
+        <v>2.55794</v>
       </c>
       <c r="N4">
-        <v>0.034203</v>
+        <v>7.67382</v>
       </c>
       <c r="O4">
-        <v>0.01020808032994874</v>
+        <v>0.9820436892998877</v>
       </c>
       <c r="P4">
-        <v>0.01020808032994874</v>
+        <v>0.9820436892998878</v>
       </c>
       <c r="Q4">
-        <v>0.0003496496683333333</v>
+        <v>0.06444985623999999</v>
       </c>
       <c r="R4">
-        <v>0.003146847014999999</v>
+        <v>0.58004870616</v>
       </c>
       <c r="S4">
-        <v>0.0009522932240537942</v>
+        <v>0.01643845093996999</v>
       </c>
       <c r="T4">
-        <v>0.0009522932240537942</v>
+        <v>0.01643845093996999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,51 +720,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03066833333333333</v>
+        <v>0.03066833333333334</v>
       </c>
       <c r="H5">
-        <v>0.09200499999999999</v>
+        <v>0.092005</v>
       </c>
       <c r="I5">
-        <v>0.09328817890078023</v>
+        <v>0.02037457957568258</v>
       </c>
       <c r="J5">
-        <v>0.09328817890078023</v>
+        <v>0.02037457957568258</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.105459333333333</v>
+        <v>0.03537</v>
       </c>
       <c r="N5">
-        <v>3.316378</v>
+        <v>0.10611</v>
       </c>
       <c r="O5">
-        <v>0.9897919196700513</v>
+        <v>0.01357924161260117</v>
       </c>
       <c r="P5">
-        <v>0.9897919196700512</v>
+        <v>0.01357924161260117</v>
       </c>
       <c r="Q5">
-        <v>0.0339025953211111</v>
+        <v>0.00108473895</v>
       </c>
       <c r="R5">
-        <v>0.3051233578899999</v>
+        <v>0.00976265055</v>
       </c>
       <c r="S5">
-        <v>0.09233588567672645</v>
+        <v>0.0002766713388133627</v>
       </c>
       <c r="T5">
-        <v>0.09233588567672643</v>
+        <v>0.0002766713388133627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.292437</v>
+        <v>0.03066833333333334</v>
       </c>
       <c r="H6">
-        <v>0.877311</v>
+        <v>0.092005</v>
       </c>
       <c r="I6">
-        <v>0.8895467150657291</v>
+        <v>0.02037457957568258</v>
       </c>
       <c r="J6">
-        <v>0.8895467150657291</v>
+        <v>0.02037457957568258</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.034203</v>
       </c>
       <c r="O6">
-        <v>0.01020808032994874</v>
+        <v>0.004377069087511052</v>
       </c>
       <c r="P6">
-        <v>0.01020808032994874</v>
+        <v>0.004377069087511052</v>
       </c>
       <c r="Q6">
-        <v>0.003334074237</v>
+        <v>0.0003496496683333333</v>
       </c>
       <c r="R6">
-        <v>0.030006668133</v>
+        <v>0.003146847015</v>
       </c>
       <c r="S6">
-        <v>0.00908056432463299</v>
+        <v>8.918094243175428E-05</v>
       </c>
       <c r="T6">
-        <v>0.00908056432463299</v>
+        <v>8.918094243175427E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.292437</v>
+        <v>0.03066833333333334</v>
       </c>
       <c r="H7">
-        <v>0.877311</v>
+        <v>0.092005</v>
       </c>
       <c r="I7">
-        <v>0.8895467150657291</v>
+        <v>0.02037457957568258</v>
       </c>
       <c r="J7">
-        <v>0.8895467150657291</v>
+        <v>0.02037457957568258</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105459333333333</v>
+        <v>2.55794</v>
       </c>
       <c r="N7">
-        <v>3.316378</v>
+        <v>7.67382</v>
       </c>
       <c r="O7">
-        <v>0.9897919196700513</v>
+        <v>0.9820436892998877</v>
       </c>
       <c r="P7">
-        <v>0.9897919196700512</v>
+        <v>0.9820436892998878</v>
       </c>
       <c r="Q7">
-        <v>0.323277211062</v>
+        <v>0.07844775656666667</v>
       </c>
       <c r="R7">
-        <v>2.909494899558</v>
+        <v>0.7060298091</v>
       </c>
       <c r="S7">
-        <v>0.8804661507410962</v>
+        <v>0.02000872729443746</v>
       </c>
       <c r="T7">
-        <v>0.8804661507410961</v>
+        <v>0.02000872729443746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.449361</v>
+      </c>
+      <c r="H8">
+        <v>4.348083</v>
+      </c>
+      <c r="I8">
+        <v>0.962886398404137</v>
+      </c>
+      <c r="J8">
+        <v>0.962886398404137</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.03537</v>
+      </c>
+      <c r="N8">
+        <v>0.10611</v>
+      </c>
+      <c r="O8">
+        <v>0.01357924161260117</v>
+      </c>
+      <c r="P8">
+        <v>0.01357924161260117</v>
+      </c>
+      <c r="Q8">
+        <v>0.05126389856999999</v>
+      </c>
+      <c r="R8">
+        <v>0.46137508713</v>
+      </c>
+      <c r="S8">
+        <v>0.01307526704941712</v>
+      </c>
+      <c r="T8">
+        <v>0.01307526704941712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.449361</v>
+      </c>
+      <c r="H9">
+        <v>4.348083</v>
+      </c>
+      <c r="I9">
+        <v>0.962886398404137</v>
+      </c>
+      <c r="J9">
+        <v>0.962886398404137</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.011401</v>
+      </c>
+      <c r="N9">
+        <v>0.034203</v>
+      </c>
+      <c r="O9">
+        <v>0.004377069087511052</v>
+      </c>
+      <c r="P9">
+        <v>0.004377069087511052</v>
+      </c>
+      <c r="Q9">
+        <v>0.016524164761</v>
+      </c>
+      <c r="R9">
+        <v>0.148717482849</v>
+      </c>
+      <c r="S9">
+        <v>0.0042146202892396</v>
+      </c>
+      <c r="T9">
+        <v>0.0042146202892396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.449361</v>
+      </c>
+      <c r="H10">
+        <v>4.348083</v>
+      </c>
+      <c r="I10">
+        <v>0.962886398404137</v>
+      </c>
+      <c r="J10">
+        <v>0.962886398404137</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.55794</v>
+      </c>
+      <c r="N10">
+        <v>7.67382</v>
+      </c>
+      <c r="O10">
+        <v>0.9820436892998877</v>
+      </c>
+      <c r="P10">
+        <v>0.9820436892998878</v>
+      </c>
+      <c r="Q10">
+        <v>3.70737847634</v>
+      </c>
+      <c r="R10">
+        <v>33.36640628706</v>
+      </c>
+      <c r="S10">
+        <v>0.9455965110654803</v>
+      </c>
+      <c r="T10">
+        <v>0.9455965110654804</v>
       </c>
     </row>
   </sheetData>
